--- a/src/templates/ShippingTableTemplate.xlsx
+++ b/src/templates/ShippingTableTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883B57D9-4A07-446A-8977-5EDD03C79BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA4BE9E-B5BC-4CE4-8A7E-402205B2E2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>ExternalOrderNo</t>
-  </si>
-  <si>
-    <t>OrderType</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Carrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,34 +460,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -512,118 +504,114 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>118</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>120</v>
+      </c>
+      <c r="E3" s="4">
+        <v>80</v>
+      </c>
+      <c r="F3" s="4">
+        <v>60</v>
+      </c>
+      <c r="G3" s="4">
+        <v>300</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>70</v>
+      </c>
+      <c r="F4" s="4">
         <v>40</v>
       </c>
-      <c r="G2" s="4">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>118</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="G4" s="4">
+        <v>300</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
+      <c r="I4" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>120</v>
-      </c>
-      <c r="G3" s="4">
-        <v>80</v>
-      </c>
-      <c r="H3" s="4">
-        <v>60</v>
-      </c>
-      <c r="I3" s="4">
-        <v>300</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>70</v>
-      </c>
-      <c r="H4" s="4">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4">
-        <v>300</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3.49</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -632,10 +620,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -644,10 +632,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -656,10 +644,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -668,10 +656,10 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -680,10 +668,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -692,10 +680,10 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -704,10 +692,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -716,10 +704,10 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -728,10 +716,10 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -740,10 +728,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -752,10 +740,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -764,10 +752,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -776,10 +764,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -788,10 +776,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -800,10 +788,10 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -812,10 +800,10 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -824,10 +812,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -836,10 +824,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -848,10 +836,10 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -860,10 +848,10 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -872,10 +860,10 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -884,10 +872,10 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -896,10 +884,10 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -908,10 +896,10 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -920,10 +908,10 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -932,10 +920,10 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -944,10 +932,10 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -956,10 +944,10 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -968,10 +956,10 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -980,10 +968,10 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -992,10 +980,10 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1004,10 +992,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1016,10 +1004,10 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1028,10 +1016,10 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1040,10 +1028,10 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1052,10 +1040,10 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1064,10 +1052,10 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1076,10 +1064,10 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1088,10 +1076,10 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1100,10 +1088,10 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1112,10 +1100,10 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1124,10 +1112,10 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1136,10 +1124,10 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1148,10 +1136,10 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1160,10 +1148,10 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1172,10 +1160,10 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1184,10 +1172,10 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1196,10 +1184,10 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1208,10 +1196,10 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1220,10 +1208,10 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1232,10 +1220,10 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -1244,10 +1232,10 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1256,10 +1244,10 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1268,10 +1256,10 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1280,10 +1268,10 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1292,10 +1280,10 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1304,10 +1292,10 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1316,10 +1304,10 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -1328,10 +1316,10 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -1340,10 +1328,10 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1352,10 +1340,10 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -1364,10 +1352,10 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -1376,10 +1364,10 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -1388,10 +1376,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -1400,10 +1388,10 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -1412,10 +1400,10 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -1424,10 +1412,10 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -1436,10 +1424,10 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -1448,10 +1436,10 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -1460,10 +1448,10 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -1472,10 +1460,10 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -1484,10 +1472,10 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -1496,10 +1484,10 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -1508,10 +1496,10 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -1520,10 +1508,10 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -1532,10 +1520,10 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -1544,10 +1532,10 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -1556,10 +1544,10 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -1568,10 +1556,10 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -1580,10 +1568,10 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -1592,10 +1580,10 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -1604,10 +1592,10 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -1616,10 +1604,10 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -1628,10 +1616,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -1640,10 +1628,10 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -1652,10 +1640,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -1664,10 +1652,10 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -1676,10 +1664,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -1688,10 +1676,10 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -1700,10 +1688,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -1712,10 +1700,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -1724,10 +1712,10 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -1736,10 +1724,10 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -1748,10 +1736,10 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -1760,10 +1748,10 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -1772,10 +1760,10 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -1784,10 +1772,10 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -1796,10 +1784,10 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -1808,10 +1796,10 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -1820,10 +1808,10 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -1832,10 +1820,10 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -1844,10 +1832,10 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -1856,10 +1844,10 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -1868,10 +1856,10 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -1880,10 +1868,10 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -1892,10 +1880,10 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -1904,10 +1892,10 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -1916,10 +1904,10 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -1928,10 +1916,10 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -1940,10 +1928,10 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -1952,10 +1940,10 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -1964,10 +1952,10 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -1976,10 +1964,10 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -1988,10 +1976,10 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -2000,10 +1988,10 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -2012,10 +2000,10 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -2024,10 +2012,10 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -2036,10 +2024,10 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -2048,10 +2036,10 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -2060,10 +2048,10 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -2072,10 +2060,10 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -2084,10 +2072,10 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -2096,10 +2084,10 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -2108,338 +2096,336 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
       <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
       <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
       <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
       <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
       <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
       <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
       <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
       <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
       <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
       <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
       <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
       <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
       <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
       <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
       <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
       <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
       <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-    </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
       <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-    </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
       <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-    </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
       <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
       <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
       <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-    </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
       <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-    </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
       <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
       <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-    </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
       <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-    </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
       <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-    </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
       <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-    </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
       <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/templates/ShippingTableTemplate.xlsx
+++ b/src/templates/ShippingTableTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA4BE9E-B5BC-4CE4-8A7E-402205B2E2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E51592E-7F90-459F-B254-338759933C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lx2(H+W)Limit(CM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>DPD</t>
+  </si>
+  <si>
+    <t>L+2(H+W)Limit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -501,24 +501,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -542,15 +542,15 @@
         <v>2.79</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>31.5</v>
@@ -574,15 +574,15 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>30</v>
@@ -606,7 +606,7 @@
         <v>3.49</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/src/templates/ShippingTableTemplate.xlsx
+++ b/src/templates/ShippingTableTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E51592E-7F90-459F-B254-338759933C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2202273-BF61-4E6E-950F-A6B7BCF7B3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="27990" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Carrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,7 +73,19 @@
     <t>DPD</t>
   </si>
   <si>
-    <t>L+2(H+W)Limit(CM)</t>
+    <t>Volume(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(L+W+H)Limit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L+2(W+H)Limit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightMinLimit(CM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -474,14 +486,17 @@
     <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,19 +516,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -532,20 +556,25 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <v>150</v>
+      </c>
+      <c r="I2" s="4">
         <v>118</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>2.79</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -564,20 +593,25 @@
       <c r="F3" s="4">
         <v>60</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>150</v>
+      </c>
+      <c r="I3" s="4">
         <v>300</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="L3" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -596,20 +630,25 @@
       <c r="F4" s="4">
         <v>40</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>200</v>
+      </c>
+      <c r="I4" s="4">
         <v>300</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="L4" s="4">
         <v>3.49</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -620,8 +659,11 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -632,8 +674,11 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -644,8 +689,11 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -656,8 +704,11 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -668,8 +719,11 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -680,8 +734,11 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -692,8 +749,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -704,8 +764,11 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -716,8 +779,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -728,8 +794,11 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -740,8 +809,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -752,8 +824,11 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -764,8 +839,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -776,8 +854,11 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -788,8 +869,11 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -800,8 +884,11 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -812,8 +899,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -824,8 +914,11 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -836,8 +929,11 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -848,8 +944,11 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -860,8 +959,11 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -872,8 +974,11 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -884,8 +989,11 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -896,8 +1004,11 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -908,8 +1019,11 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -920,8 +1034,11 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -932,8 +1049,11 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -944,8 +1064,11 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -956,8 +1079,11 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -968,8 +1094,11 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -980,8 +1109,11 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -992,8 +1124,11 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1004,8 +1139,11 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1016,8 +1154,11 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1028,8 +1169,11 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1040,8 +1184,11 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1052,8 +1199,11 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1064,8 +1214,11 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1076,8 +1229,11 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1088,8 +1244,11 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1100,8 +1259,11 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1112,8 +1274,11 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1124,8 +1289,11 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1136,8 +1304,11 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1148,8 +1319,11 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1160,8 +1334,11 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1172,8 +1349,11 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1184,8 +1364,11 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1196,8 +1379,11 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1208,8 +1394,11 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1220,8 +1409,11 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1232,8 +1424,11 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1244,8 +1439,11 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1256,8 +1454,11 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1268,8 +1469,11 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1280,8 +1484,11 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1292,8 +1499,11 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1304,8 +1514,11 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1316,8 +1529,11 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1328,8 +1544,11 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1340,8 +1559,11 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1352,8 +1574,11 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1364,8 +1589,11 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1376,8 +1604,11 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1388,8 +1619,11 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1400,8 +1634,11 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1412,8 +1649,11 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1424,8 +1664,11 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1436,8 +1679,11 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1448,8 +1694,11 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1460,8 +1709,11 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1472,8 +1724,11 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1484,8 +1739,11 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1496,8 +1754,11 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1508,8 +1769,11 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1520,8 +1784,11 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1532,8 +1799,11 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1544,8 +1814,11 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1556,8 +1829,11 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1568,8 +1844,11 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1580,8 +1859,11 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1592,8 +1874,11 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1604,8 +1889,11 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1616,8 +1904,11 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1628,8 +1919,11 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1640,8 +1934,11 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1652,8 +1949,11 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1664,8 +1964,11 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1676,8 +1979,11 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1688,8 +1994,11 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1700,8 +2009,11 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1712,8 +2024,11 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1724,8 +2039,11 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1736,8 +2054,11 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1748,8 +2069,11 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1760,8 +2084,11 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1772,8 +2099,11 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1784,8 +2114,11 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1796,8 +2129,11 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1808,8 +2144,11 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1820,8 +2159,11 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1832,8 +2174,11 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1844,8 +2189,11 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -1856,8 +2204,11 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -1868,8 +2219,11 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -1880,8 +2234,11 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -1892,8 +2249,11 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1904,8 +2264,11 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -1916,8 +2279,11 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -1928,8 +2294,11 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -1940,8 +2309,11 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -1952,8 +2324,11 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1964,8 +2339,11 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -1976,8 +2354,11 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -1988,8 +2369,11 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2000,8 +2384,11 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2012,8 +2399,11 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2024,8 +2414,11 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2036,8 +2429,11 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2048,8 +2444,11 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2060,8 +2459,11 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2072,8 +2474,11 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2084,8 +2489,11 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2096,8 +2504,11 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2107,8 +2518,11 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2118,8 +2532,11 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2129,8 +2546,11 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2140,8 +2560,11 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2151,8 +2574,11 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2162,8 +2588,11 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2173,8 +2602,11 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2184,8 +2616,11 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2195,8 +2630,11 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2206,8 +2644,11 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2217,8 +2658,11 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2228,8 +2672,11 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2239,8 +2686,11 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2250,8 +2700,11 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2261,8 +2714,11 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2272,8 +2728,11 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2283,8 +2742,11 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2294,8 +2756,11 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2305,8 +2770,11 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2316,8 +2784,11 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2327,8 +2798,11 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2338,8 +2812,11 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2349,8 +2826,11 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2360,8 +2840,11 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2371,8 +2854,11 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2382,8 +2868,11 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2393,8 +2882,11 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2404,8 +2896,11 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2415,8 +2910,11 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2426,6 +2924,9 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/templates/ShippingTableTemplate.xlsx
+++ b/src/templates/ShippingTableTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2202273-BF61-4E6E-950F-A6B7BCF7B3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E6733-4358-4CD1-A373-BACC7DF0A423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="27990" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="3075" windowWidth="15720" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Carrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>HeightMinLimit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Departure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,183 +480,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>40</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G2" s="4">
         <v>28</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>150</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>118</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="4">
         <v>2.79</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
         <v>31.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>120</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>80</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>60</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>150</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>300</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4">
         <v>1.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>70</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>40</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>200</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>300</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>3.49</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -662,8 +690,10 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -677,8 +707,10 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -692,8 +724,10 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -707,8 +741,10 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -722,8 +758,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -737,8 +775,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -752,8 +792,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -767,8 +809,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -782,8 +826,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -797,8 +843,10 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -812,8 +860,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -827,8 +877,10 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -842,8 +894,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -857,8 +911,10 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -872,8 +928,10 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -887,8 +945,10 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -902,8 +962,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -917,8 +979,10 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -932,8 +996,10 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -947,8 +1013,10 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -962,8 +1030,10 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -977,8 +1047,10 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -992,8 +1064,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1007,8 +1081,10 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1022,8 +1098,10 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1037,8 +1115,10 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1052,8 +1132,10 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1067,8 +1149,10 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1082,8 +1166,10 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1097,8 +1183,10 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1112,8 +1200,10 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1127,8 +1217,10 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1142,8 +1234,10 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1157,8 +1251,10 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1172,8 +1268,10 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1187,8 +1285,10 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1202,8 +1302,10 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1217,8 +1319,10 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1232,8 +1336,10 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1247,8 +1353,10 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1262,8 +1370,10 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1277,8 +1387,10 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1292,8 +1404,10 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1307,8 +1421,10 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1322,8 +1438,10 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1337,8 +1455,10 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1352,8 +1472,10 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1367,8 +1489,10 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1382,8 +1506,10 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1397,8 +1523,10 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1412,8 +1540,10 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1427,8 +1557,10 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1442,8 +1574,10 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1457,8 +1591,10 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1472,8 +1608,10 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1487,8 +1625,10 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1502,8 +1642,10 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1517,8 +1659,10 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1532,8 +1676,10 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1547,8 +1693,10 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1562,8 +1710,10 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1577,8 +1727,10 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1592,8 +1744,10 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1607,8 +1761,10 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1622,8 +1778,10 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1637,8 +1795,10 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1652,8 +1812,10 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1667,8 +1829,10 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1682,8 +1846,10 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1697,8 +1863,10 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1712,8 +1880,10 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1727,8 +1897,10 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1742,8 +1914,10 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1757,8 +1931,10 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1772,8 +1948,10 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1787,8 +1965,10 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1802,8 +1982,10 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1817,8 +1999,10 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1832,8 +2016,10 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1847,8 +2033,10 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1862,8 +2050,10 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1877,8 +2067,10 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1892,8 +2084,10 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1907,8 +2101,10 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1922,8 +2118,10 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1937,8 +2135,10 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1952,8 +2152,10 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1967,8 +2169,10 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1982,8 +2186,10 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1997,8 +2203,10 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2012,8 +2220,10 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2027,8 +2237,10 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2042,8 +2254,10 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2057,8 +2271,10 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2072,8 +2288,10 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2087,8 +2305,10 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2102,8 +2322,10 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2117,8 +2339,10 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2132,8 +2356,10 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2147,8 +2373,10 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2162,8 +2390,10 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2177,8 +2407,10 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2192,8 +2424,10 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2207,8 +2441,10 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2222,8 +2458,10 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2237,8 +2475,10 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2252,8 +2492,10 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2267,8 +2509,10 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2282,8 +2526,10 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2297,8 +2543,10 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2312,8 +2560,10 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2327,8 +2577,10 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2342,8 +2594,10 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2357,8 +2611,10 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2372,8 +2628,10 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2387,8 +2645,10 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2402,8 +2662,10 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2417,8 +2679,10 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2432,8 +2696,10 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2447,8 +2713,10 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2462,8 +2730,10 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2477,8 +2747,10 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2492,8 +2764,10 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2507,426 +2781,488 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/templates/ShippingTableTemplate.xlsx
+++ b/src/templates/ShippingTableTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E6733-4358-4CD1-A373-BACC7DF0A423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028F9794-0828-4C73-B96A-1D86B3540EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32625" yWindow="3075" windowWidth="15720" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Carrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
     <t>Departure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LengthMinLimit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WidthMinLimit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -112,6 +120,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -496,17 +505,18 @@
     <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -532,28 +542,34 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -576,25 +592,33 @@
       <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>15</v>
+      </c>
       <c r="J2" s="4">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4">
         <v>150</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>118</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>2.79</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -617,25 +641,33 @@
       <c r="H3" s="4">
         <v>60</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>15</v>
+      </c>
       <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4">
         <v>150</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>300</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -658,25 +690,33 @@
       <c r="H4" s="4">
         <v>40</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>15</v>
+      </c>
       <c r="J4" s="4">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
         <v>200</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>300</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>3.49</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -692,8 +732,10 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -709,8 +751,10 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -726,8 +770,10 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -743,8 +789,10 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -760,8 +808,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -777,8 +827,10 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -794,8 +846,10 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -811,8 +865,10 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -828,8 +884,10 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -845,8 +903,10 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -862,8 +922,10 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -879,8 +941,10 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -896,8 +960,10 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -913,8 +979,10 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -930,8 +998,10 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -947,8 +1017,10 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -964,8 +1036,10 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -981,8 +1055,10 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -998,8 +1074,10 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1015,8 +1093,10 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1032,8 +1112,10 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1049,8 +1131,10 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1066,8 +1150,10 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1083,8 +1169,10 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1100,8 +1188,10 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1117,8 +1207,10 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1134,8 +1226,10 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1151,8 +1245,10 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1168,8 +1264,10 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1185,8 +1283,10 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1202,8 +1302,10 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1219,8 +1321,10 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1236,8 +1340,10 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1253,8 +1359,10 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1270,8 +1378,10 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1287,8 +1397,10 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1304,8 +1416,10 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1321,8 +1435,10 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1338,8 +1454,10 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1355,8 +1473,10 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1372,8 +1492,10 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1389,8 +1511,10 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1406,8 +1530,10 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1423,8 +1549,10 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1440,8 +1568,10 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1457,8 +1587,10 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1474,8 +1606,10 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1491,8 +1625,10 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1508,8 +1644,10 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1525,8 +1663,10 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1542,8 +1682,10 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1559,8 +1701,10 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1576,8 +1720,10 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1593,8 +1739,10 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1610,8 +1758,10 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1627,8 +1777,10 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1644,8 +1796,10 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1661,8 +1815,10 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1678,8 +1834,10 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1695,8 +1853,10 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1712,8 +1872,10 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1729,8 +1891,10 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1746,8 +1910,10 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1763,8 +1929,10 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1780,8 +1948,10 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1797,8 +1967,10 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1814,8 +1986,10 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1831,8 +2005,10 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1848,8 +2024,10 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1865,8 +2043,10 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1882,8 +2062,10 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1899,8 +2081,10 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1916,8 +2100,10 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1933,8 +2119,10 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1950,8 +2138,10 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1967,8 +2157,10 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1984,8 +2176,10 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2001,8 +2195,10 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2018,8 +2214,10 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2035,8 +2233,10 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2052,8 +2252,10 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2069,8 +2271,10 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2086,8 +2290,10 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2103,8 +2309,10 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2120,8 +2328,10 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2137,8 +2347,10 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2154,8 +2366,10 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2171,8 +2385,10 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2188,8 +2404,10 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2205,8 +2423,10 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2222,8 +2442,10 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2239,8 +2461,10 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2256,8 +2480,10 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2273,8 +2499,10 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2290,8 +2518,10 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2307,8 +2537,10 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2324,8 +2556,10 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2341,8 +2575,10 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2358,8 +2594,10 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2375,8 +2613,10 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2392,8 +2632,10 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2409,8 +2651,10 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2426,8 +2670,10 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2443,8 +2689,10 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2460,8 +2708,10 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2477,8 +2727,10 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2494,8 +2746,10 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2511,8 +2765,10 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2528,8 +2784,10 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2545,8 +2803,10 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2562,8 +2822,10 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2579,8 +2841,10 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2596,8 +2860,10 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2613,8 +2879,10 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2630,8 +2898,10 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2647,8 +2917,10 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2664,8 +2936,10 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2681,8 +2955,10 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2698,8 +2974,10 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2715,8 +2993,10 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2732,8 +3012,10 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2749,8 +3031,10 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2766,8 +3050,10 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2783,8 +3069,10 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2799,8 +3087,10 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2815,8 +3105,10 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2831,8 +3123,10 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2847,8 +3141,10 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2863,8 +3159,10 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2879,8 +3177,10 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2895,8 +3195,10 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2911,8 +3213,10 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2927,8 +3231,10 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2943,8 +3249,10 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2959,8 +3267,10 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2975,8 +3285,10 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2991,8 +3303,10 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3007,8 +3321,10 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3023,8 +3339,10 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3039,8 +3357,10 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3055,8 +3375,10 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3071,8 +3393,10 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3087,8 +3411,10 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3103,8 +3429,10 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3119,8 +3447,10 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3135,8 +3465,10 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3151,8 +3483,10 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3167,8 +3501,10 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3183,8 +3519,10 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3199,8 +3537,10 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3215,8 +3555,10 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3231,8 +3573,10 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3247,8 +3591,10 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3263,6 +3609,8 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/templates/ShippingTableTemplate.xlsx
+++ b/src/templates/ShippingTableTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028F9794-0828-4C73-B96A-1D86B3540EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE22A01-4B7F-494A-8EA1-229A96EDE647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Carrier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Destination</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(L+H)Limit(CM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +51,6 @@
   </si>
   <si>
     <t>DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,6 +86,22 @@
   </si>
   <si>
     <t>WidthMinLimit(CM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.96 EUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.88 EUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.21 EUR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,45 +489,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -539,184 +539,172 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>150</v>
+      </c>
+      <c r="L2" s="4">
+        <v>118</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>120</v>
+      </c>
+      <c r="F3" s="4">
+        <v>80</v>
+      </c>
+      <c r="G3" s="4">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>150</v>
+      </c>
+      <c r="L3" s="4">
+        <v>300</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>70</v>
+      </c>
+      <c r="G4" s="4">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>200</v>
+      </c>
+      <c r="L4" s="4">
+        <v>300</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4">
-        <v>150</v>
-      </c>
-      <c r="M2" s="4">
-        <v>118</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>120</v>
-      </c>
-      <c r="G3" s="4">
-        <v>80</v>
-      </c>
-      <c r="H3" s="4">
-        <v>60</v>
-      </c>
-      <c r="I3" s="4">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4">
-        <v>11</v>
-      </c>
-      <c r="K3" s="4">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4">
-        <v>150</v>
-      </c>
-      <c r="M3" s="4">
-        <v>300</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>70</v>
-      </c>
-      <c r="H4" s="4">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4">
-        <v>200</v>
-      </c>
-      <c r="M4" s="4">
-        <v>300</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>3.49</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -733,9 +721,8 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -752,9 +739,8 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -771,9 +757,8 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -790,9 +775,8 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -809,9 +793,8 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -828,9 +811,8 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -847,9 +829,8 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -866,9 +847,8 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -885,9 +865,8 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -904,9 +883,8 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -923,9 +901,8 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -942,9 +919,8 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -961,9 +937,8 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -980,9 +955,8 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -999,9 +973,8 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1018,9 +991,8 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1037,9 +1009,8 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1056,9 +1027,8 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1075,9 +1045,8 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1094,9 +1063,8 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1113,9 +1081,8 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1132,9 +1099,8 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1151,9 +1117,8 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1170,9 +1135,8 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1189,9 +1153,8 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1208,9 +1171,8 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1227,9 +1189,8 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1246,9 +1207,8 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1265,9 +1225,8 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1284,9 +1243,8 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1303,9 +1261,8 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1322,9 +1279,8 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1341,9 +1297,8 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1360,9 +1315,8 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1379,9 +1333,8 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1398,9 +1351,8 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1417,9 +1369,8 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1436,9 +1387,8 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1455,9 +1405,8 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1474,9 +1423,8 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1493,9 +1441,8 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1512,9 +1459,8 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1531,9 +1477,8 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1550,9 +1495,8 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1569,9 +1513,8 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1588,9 +1531,8 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1607,9 +1549,8 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1626,9 +1567,8 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1645,9 +1585,8 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1664,9 +1603,8 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1683,9 +1621,8 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1702,9 +1639,8 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1721,9 +1657,8 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1740,9 +1675,8 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1759,9 +1693,8 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1778,9 +1711,8 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1797,9 +1729,8 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1816,9 +1747,8 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1835,9 +1765,8 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1854,9 +1783,8 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1873,9 +1801,8 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1892,9 +1819,8 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1911,9 +1837,8 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1930,9 +1855,8 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1949,9 +1873,8 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1968,9 +1891,8 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1987,9 +1909,8 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2006,9 +1927,8 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2025,9 +1945,8 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2044,9 +1963,8 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2063,9 +1981,8 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2082,9 +1999,8 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2101,9 +2017,8 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2120,9 +2035,8 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2139,9 +2053,8 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2158,9 +2071,8 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2177,9 +2089,8 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2196,9 +2107,8 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2215,9 +2125,8 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2234,9 +2143,8 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2253,9 +2161,8 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2272,9 +2179,8 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2291,9 +2197,8 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2310,9 +2215,8 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2329,9 +2233,8 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2348,9 +2251,8 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2367,9 +2269,8 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2386,9 +2287,8 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2405,9 +2305,8 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2424,9 +2323,8 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2443,9 +2341,8 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2462,9 +2359,8 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2481,9 +2377,8 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2500,9 +2395,8 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2519,9 +2413,8 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2538,9 +2431,8 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2557,9 +2449,8 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2576,9 +2467,8 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2595,9 +2485,8 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2614,9 +2503,8 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2633,9 +2521,8 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2652,9 +2539,8 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2671,9 +2557,8 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2690,9 +2575,8 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2709,9 +2593,8 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2728,9 +2611,8 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2747,9 +2629,8 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2766,9 +2647,8 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2785,9 +2665,8 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2804,9 +2683,8 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2823,9 +2701,8 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2842,9 +2719,8 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2861,9 +2737,8 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2880,9 +2755,8 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2899,9 +2773,8 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2918,9 +2791,8 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2937,9 +2809,8 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2956,9 +2827,8 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2975,9 +2845,8 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2994,9 +2863,8 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3013,9 +2881,8 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3032,9 +2899,8 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3051,9 +2917,8 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3070,15 +2935,14 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -3088,15 +2952,14 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -3106,15 +2969,14 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -3124,15 +2986,14 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -3142,15 +3003,14 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -3160,15 +3020,14 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -3178,15 +3037,14 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -3196,15 +3054,14 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -3214,15 +3071,14 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -3232,15 +3088,14 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -3250,15 +3105,14 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -3268,15 +3122,14 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -3286,15 +3139,14 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -3304,15 +3156,14 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -3322,15 +3173,14 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -3340,15 +3190,14 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -3358,15 +3207,14 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -3376,15 +3224,14 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -3394,15 +3241,14 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -3412,15 +3258,14 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -3430,15 +3275,14 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -3448,15 +3292,14 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -3466,15 +3309,14 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -3484,15 +3326,14 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -3502,15 +3343,14 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -3520,15 +3360,14 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -3538,15 +3377,14 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -3556,15 +3394,14 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -3574,15 +3411,14 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -3592,15 +3428,14 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
-      <c r="Q157" s="4"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -3610,7 +3445,6 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
